--- a/NformTester/NformTester/Keywordscripts/600.30.30.140_SimulataneousHandlingOfMultipleLogicalGroups.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.140_SimulataneousHandlingOfMultipleLogicalGroups.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -3669,122 +3669,122 @@
     <t>SingleManual</t>
   </si>
   <si>
+    <t>"Description for Vel"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add PDU device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Emerson protocol"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Clear configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>VerifyContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"group1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"group2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCP_snREM001-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCP_snREM001-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remLabelUsrAssign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCP_snREM001-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCP_snREM001-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Add receptacles for each group </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;verify each groups receptacles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;modify or delete receptacles in one group and will not affact the other one </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCP_snREM001-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
     <t>$Velocity_device_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_Name$</t>
+    <t>$NAME_Velocity_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Description for Vel"</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add PDU device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert MPX/MPH - RPC1000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Emerson protocol"</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Clear configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>VerifyContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add groups</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"group1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"group2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCP_snREM001-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCP_snREM001-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remLabelUsrAssign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCP_snREM001-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCP_snREM001-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Add receptacles for each group </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;verify each groups receptacles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;modify or delete receptacles in one group and will not affact the other one </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCP_snREM001-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
   </si>
 </sst>
 </file>
@@ -4765,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="E85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4898,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>197</v>
@@ -4929,7 +4929,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4966,20 +4966,20 @@
       <c r="H6" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>812</v>
-      </c>
       <c r="M6" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
@@ -5022,7 +5022,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -5204,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5235,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -5519,7 +5519,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -5546,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -5661,7 +5661,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -5820,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -5849,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="J38" s="10">
         <v>-60</v>
@@ -5882,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J39" s="10">
         <v>-40</v>
@@ -5915,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J40" s="10">
         <v>-60</v>
@@ -5948,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J41" s="10">
         <v>-40</v>
@@ -5981,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J42" s="10">
         <v>-40</v>
@@ -6014,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J44" s="10">
         <v>-40</v>
@@ -6076,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J45" s="10">
         <v>-40</v>
@@ -6109,7 +6109,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J46" s="10">
         <v>-40</v>
@@ -6142,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J47" s="10">
         <v>-40</v>
@@ -6235,7 +6235,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6371,7 +6371,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J56" s="3">
         <v>-40</v>
@@ -6404,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -6433,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -6462,7 +6462,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6491,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J60" s="3">
         <v>-40</v>
@@ -6524,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -6553,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J62" s="3">
         <v>-40</v>
@@ -6586,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
@@ -6615,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="10"/>
@@ -6644,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="10"/>
@@ -6708,7 +6708,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -6844,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="10"/>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J74" s="10">
         <v>-40</v>
@@ -6906,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J75" s="10">
         <v>-40</v>
@@ -7116,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J83" s="3">
         <v>-40</v>
@@ -7149,7 +7149,7 @@
         <v>3</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="10"/>
@@ -7178,7 +7178,7 @@
         <v>3</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="10"/>
@@ -7207,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="10"/>
@@ -7236,7 +7236,7 @@
         <v>2</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J87" s="3">
         <v>-40</v>
@@ -7269,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -7298,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J89" s="3">
         <v>-40</v>
@@ -7331,7 +7331,7 @@
         <v>3</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="10"/>
@@ -7360,7 +7360,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="10"/>
@@ -7389,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="10"/>
@@ -7453,7 +7453,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -7494,7 +7494,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>19</v>
@@ -7517,10 +7517,10 @@
         <v>97</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>578</v>
@@ -7529,7 +7529,7 @@
         <v>3</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="3"/>
@@ -7542,10 +7542,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>184</v>
@@ -7565,7 +7565,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>585</v>
@@ -7589,10 +7589,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>99</v>
@@ -7723,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -7773,7 +7773,7 @@
         <v>2</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -7854,7 +7854,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>623</v>
@@ -30016,7 +30016,7 @@
         <v>8</v>
       </c>
       <c r="CH8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="CI8" t="s">
         <v>8</v>
